--- a/tests/TestSheets/TestUtils.xlsx
+++ b/tests/TestSheets/TestUtils.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Steven\dev\xloil\tests\TestSheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9887C73D-BF95-4776-A882-8A8A050CC78B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Block-Fill-FillNA" sheetId="1" r:id="rId1"/>
@@ -18,19 +19,40 @@
     <sheet name="xloRef-Index" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
+    <definedName name="Test_IndexMatchesBuiltin">'xloRef-Index'!$C$8</definedName>
+    <definedName name="Test_IndexMissingArgs">'xloRef-Index'!$C$15</definedName>
+    <definedName name="Test_IndexNegativeVals">'xloRef-Index'!$C$13</definedName>
+    <definedName name="Test_IndexZeroOffsets">'xloRef-Index'!$C$17</definedName>
+    <definedName name="Test_RefRoundTrip">'xloRef-Index'!$C$3</definedName>
+    <definedName name="Test_SortAscNoCase">Sort!$B$4</definedName>
+    <definedName name="Test_SortAscNoCaseNamedColumn">Sort!$C$4</definedName>
+    <definedName name="Test_SortAscNoCaseRef">Sort!$D$4</definedName>
+    <definedName name="Test_SortDesc">Sort!$E$4</definedName>
+    <definedName name="Test_SortDescNamedCol">Sort!$F$4</definedName>
+    <definedName name="Test_SortDescRef">Sort!$G$4</definedName>
+    <definedName name="Test_SortDoubles">Sort!$S$4</definedName>
+    <definedName name="Test_SortMixedData">Sort!$K$4</definedName>
+    <definedName name="Test_SortMixedRef">Sort!$O$4</definedName>
+    <definedName name="Test_SortMixedRefCase">Sort!$Q$4</definedName>
+    <definedName name="Test_SortMixedWithCase">Sort!$M$4</definedName>
+    <definedName name="Test_SplitArray">'Concat-Split'!$I$30</definedName>
+    <definedName name="Test_SplitArrayHorizontal">'Concat-Split'!$I$35</definedName>
+    <definedName name="Test_SplitFromConcat">'Concat-Split'!$I$23</definedName>
+    <definedName name="Test_SplitIgnoreNonString">'Concat-Split'!$E$43</definedName>
     <definedName name="Test_xloBlockComplex">'Block-Fill-FillNA'!$B$10</definedName>
     <definedName name="Test_xloBlockPadding">'Block-Fill-FillNA'!$B$17</definedName>
     <definedName name="Test_xloBlockRefArgs">'Block-Fill-FillNA'!$B$31</definedName>
     <definedName name="Test_xloBlockRightJustify">'Block-Fill-FillNA'!$B$24</definedName>
     <definedName name="Test_xloBlockSimple">'Block-Fill-FillNA'!$B$4</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -259,7 +281,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0;0;[Red]0"/>
   </numFmts>
@@ -288,7 +310,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -337,6 +359,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -350,7 +378,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -372,6 +400,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -685,11 +714,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B2:Y36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
@@ -732,7 +761,7 @@
     </row>
     <row r="4" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B4" s="15" t="e">
-        <f t="array" ref="B4" ca="1">AND(L6:M7=V6:W7)</f>
+        <f t="array" aca="1" ref="B4" ca="1">AND(L6:M7=V6:W7)</f>
         <v>#NAME?</v>
       </c>
       <c r="D4" t="s">
@@ -841,7 +870,7 @@
     </row>
     <row r="10" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B10" s="12" t="e">
-        <f t="array" ref="B10" ca="1">AND(P12:R15=V12:X15)</f>
+        <f t="array" aca="1" ref="B10" ca="1">AND(P12:R15=V12:X15)</f>
         <v>#NAME?</v>
       </c>
       <c r="D10" t="s">
@@ -1037,7 +1066,7 @@
     </row>
     <row r="17" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B17" s="12" t="e">
-        <f t="array" ref="B17" ca="1">AND(L19:M20=V19:W20)</f>
+        <f t="array" aca="1" ref="B17" ca="1">AND(L19:M20=V19:W20)</f>
         <v>#NAME?</v>
       </c>
       <c r="D17" t="s">
@@ -1597,12 +1626,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="B2:K42"/>
+  <dimension ref="B2:K43"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView showGridLines="0" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1707,17 +1736,17 @@
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="6" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B21" s="5" t="e">
         <f t="array" aca="1" ref="B21:H21" ca="1">TRANSPOSE(_xll.xloSplit(B14,"-"))</f>
         <v>#NAME?</v>
@@ -1747,7 +1776,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" t="str">
         <f>I5</f>
         <v>Foo</v>
@@ -1773,7 +1802,7 @@
         <v>Baz</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B23" s="12" t="e">
         <f ca="1">B21=B22</f>
         <v>#NAME?</v>
@@ -1790,7 +1819,9 @@
         <f t="shared" ca="1" si="0"/>
         <v>#NAME?</v>
       </c>
-      <c r="F23" s="12"/>
+      <c r="F23" s="12" t="b">
+        <v>1</v>
+      </c>
       <c r="G23" s="12" t="e">
         <f t="shared" ca="1" si="0"/>
         <v>#NAME?</v>
@@ -1799,13 +1830,17 @@
         <f t="shared" ca="1" si="0"/>
         <v>#NAME?</v>
       </c>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I23" s="19" t="e">
+        <f ca="1">AND(B23:H23)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B27" s="5" t="e">
         <f t="array" aca="1" ref="B27:C30" ca="1">_xll.xloSplit(I5:I8,"e")</f>
         <v>#NAME?</v>
@@ -1829,7 +1864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B28" s="5" t="e">
         <f ca="1"/>
         <v>#NAME?</v>
@@ -1853,7 +1888,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B29" s="5" t="e">
         <f ca="1"/>
         <v>#NAME?</v>
@@ -1877,7 +1912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B30" s="5" t="e">
         <f ca="1"/>
         <v>#NAME?</v>
@@ -1900,13 +1935,17 @@
         <f ca="1">ISNA(C30)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I30" s="19" t="e">
+        <f ca="1">AND(G27:H30)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B34" s="5" t="e">
         <f t="array" aca="1" ref="B34:D35" ca="1">_xll.xloSplit(I5:K5,"a")</f>
         <v>#NAME?</v>
@@ -1932,7 +1971,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B35" s="5" t="e">
         <f ca="1"/>
         <v>#NAME?</v>
@@ -1957,8 +1996,12 @@
         <f t="shared" ref="G35" ca="1" si="5">D37=D35</f>
         <v>#NAME?</v>
       </c>
-    </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="I35" s="19" t="e">
+        <f ca="1">AND(E34:G35)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
         <v>18</v>
       </c>
@@ -1969,7 +2012,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B37" t="e">
         <v>#N/A</v>
       </c>
@@ -1980,12 +2023,12 @@
         <v>53</v>
       </c>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B40" s="2">
         <v>1</v>
       </c>
@@ -1998,7 +2041,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B41" s="2">
         <v>2</v>
       </c>
@@ -2011,7 +2054,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B42" s="2">
         <v>3</v>
       </c>
@@ -2021,6 +2064,12 @@
       </c>
       <c r="E42" s="12" t="e">
         <f t="shared" ca="1" si="6"/>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="E43" s="19" t="e">
+        <f ca="1">AND(E40:E42)</f>
         <v>#NAME?</v>
       </c>
     </row>
@@ -2030,18 +2079,18 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="B2:V107"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="S4" sqref="S4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3.109375" customWidth="1"/>
-    <col min="4" max="4" width="6.88671875" customWidth="1"/>
+    <col min="4" max="4" width="8.33203125" customWidth="1"/>
     <col min="10" max="10" width="2.109375" customWidth="1"/>
     <col min="11" max="11" width="23.109375" customWidth="1"/>
     <col min="12" max="12" width="2.44140625" customWidth="1"/>
@@ -2085,27 +2134,27 @@
     </row>
     <row r="4" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B4" s="12" t="e">
-        <f t="array" ref="B4" ca="1">AND(B19:C25=B40:C46)</f>
+        <f t="array" aca="1" ref="B4" ca="1">AND(B19:C25=B40:C46)</f>
         <v>#NAME?</v>
       </c>
       <c r="C4" s="12" t="e">
-        <f t="array" ref="C4" ca="1">AND(E19:F25=B40:C46)</f>
+        <f t="array" aca="1" ref="C4" ca="1">AND(E19:F25=B40:C46)</f>
         <v>#NAME?</v>
       </c>
       <c r="D4" s="12" t="e">
-        <f t="array" ref="D4" ca="1">AND(H19:I25=B40:C46)</f>
+        <f t="array" aca="1" ref="D4" ca="1">AND(H19:I25=B40:C46)</f>
         <v>#NAME?</v>
       </c>
       <c r="E4" s="12" t="e">
-        <f t="array" ref="E4" ca="1">AND(B30:C36=B48:C54)</f>
+        <f t="array" aca="1" ref="E4" ca="1">AND(B30:C36=B48:C54)</f>
         <v>#NAME?</v>
       </c>
       <c r="F4" s="12" t="e">
-        <f t="array" ref="F4" ca="1">AND(E30:F36=B48:C54)</f>
+        <f t="array" aca="1" ref="F4" ca="1">AND(E30:F36=B48:C54)</f>
         <v>#NAME?</v>
       </c>
       <c r="G4" s="12" t="e">
-        <f t="array" ref="G4" ca="1">AND(H30:I36=B48:C54)</f>
+        <f t="array" aca="1" ref="G4" ca="1">AND(H30:I36=B48:C54)</f>
         <v>#NAME?</v>
       </c>
       <c r="K4" s="12" t="e">
@@ -2161,7 +2210,7 @@
       </c>
       <c r="S8" s="7">
         <f ca="1">RAND()</f>
-        <v>0.10760126681803184</v>
+        <v>0.91523836721702967</v>
       </c>
       <c r="T8" s="4" t="e">
         <f t="array" aca="1" ref="T8:T107" ca="1">_xll.xloSort(S8:S107,"a")</f>
@@ -3897,12 +3946,12 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="B2:M18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3921,7 +3970,7 @@
         <v>55</v>
       </c>
       <c r="C3" s="12" t="e">
-        <f t="array" ref="C3" ca="1">SUM(0+(F3:H5=K3:M5))=9</f>
+        <f t="array" aca="1" ref="C3" ca="1">SUM(0+(F3:H5=K3:M5))=9</f>
         <v>#NAME?</v>
       </c>
       <c r="E3" t="e">
@@ -4058,15 +4107,12 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="C14" s="12"/>
-    </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>58</v>
       </c>
       <c r="C15" s="12" t="e">
-        <f t="array" ref="C15" ca="1">SUM(0+(D15:E15=F15:G15))=2</f>
+        <f t="array" aca="1" ref="C15" ca="1">SUM(0+(D15:E15=F15:G15))=2</f>
         <v>#NAME?</v>
       </c>
       <c r="D15">
@@ -4091,7 +4137,7 @@
         <v>59</v>
       </c>
       <c r="C17" s="12" t="e">
-        <f t="array" ref="C17" ca="1">SUM(0+(D17:E18=F17:G18))=4</f>
+        <f t="array" aca="1" ref="C17" ca="1">SUM(0+(D17:E18=F17:G18))=4</f>
         <v>#NAME?</v>
       </c>
       <c r="D17" t="e">
